--- a/timetable.xlsx
+++ b/timetable.xlsx
@@ -1,40 +1,118 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91934\OneDrive\Desktop\Django\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E4A14A-0B6A-48CB-A9AA-B3D45C23EC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Tuesday, Wednesday, Thursday, Friday (Non-Veg Days)</t>
+  </si>
+  <si>
+    <t>Sunday, Monday, Saturday (Veg Days)</t>
+  </si>
+  <si>
+    <t>Morning (7:00 AM - 8:00 AM)</t>
+  </si>
+  <si>
+    <t>Mid-Morning Snack (10:30 AM - 11:30 AM)</t>
+  </si>
+  <si>
+    <t>Lunch (1:00 PM - 2:00 PM)</t>
+  </si>
+  <si>
+    <t>Evening Snack (4:00 PM - 5:00 PM)</t>
+  </si>
+  <si>
+    <t>Dinner (8:00 PM - 9:00 PM)</t>
+  </si>
+  <si>
+    <t>Night Snack (10:30 PM - 11:00 PM)</t>
+  </si>
+  <si>
+    <t>2 boiled eggs, 2 slices of bread with peanut butter</t>
+  </si>
+  <si>
+    <t>3 slices of bread with peanut butter</t>
+  </si>
+  <si>
+    <t>Handful of mixed nuts (almonds, cashews, karjura)</t>
+  </si>
+  <si>
+    <t>Biryani, rice with chicken or chicken curry, Chapati with curry, Raita or curd</t>
+  </si>
+  <si>
+    <t>Rice with dal, vegetable curry, Chapati with vegetable curry, Raita or curd</t>
+  </si>
+  <si>
+    <t>Handful of mixed nuts (almonds, cashews, karjura), Baadam Milk</t>
+  </si>
+  <si>
+    <t>2 boiled eggs, 1 banana or fruit</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -46,94 +124,104 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="3">
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{92691851-50D7-403E-8DDF-F6CE2ED69BA7}" name="Table1" displayName="Table1" ref="A1:C7" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="0" tableBorderDxfId="1">
+  <autoFilter ref="A1:C7" xr:uid="{92691851-50D7-403E-8DDF-F6CE2ED69BA7}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{FE06AF43-2A98-4978-93AA-0C61B6B3F642}" name="Time"/>
+    <tableColumn id="2" xr3:uid="{A5898654-DB5B-468C-BFE7-C78D20164ADE}" name="Tuesday, Wednesday, Thursday, Friday (Non-Veg Days)"/>
+    <tableColumn id="3" xr3:uid="{48DC0B64-87B9-44D9-A5DE-38FDEC23290A}" name="Sunday, Monday, Saturday (Veg Days)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,139 +508,101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="95" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="91.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Time</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Tuesday, Wednesday, Thursday, Friday (Non-Veg Days)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Sunday, Monday, Saturday (Veg Days)</t>
-        </is>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Morning (7:00 AM - 8:00 AM)</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2 boiled/scrambled eggs &lt;br&gt; 2 slices whole-grain toast with peanut butter or avocado &lt;br&gt; 1 banana or fruit</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2 boiled/scrambled eggs &lt;br&gt; Vegetable upma or poha with ghee &lt;br&gt; 1 banana or fruit</t>
-        </is>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Mid-Morning Snack (10:30 AM - 11:30 AM)</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Handful of mixed nuts (almonds, cashews, walnuts) &lt;br&gt; Fruit smoothie (full-fat milk, banana, peanut butter, oats)</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Handful of mixed nuts &lt;br&gt; Fruit smoothie (full-fat milk, banana, peanut butter, oats)</t>
-        </is>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Lunch (1:00 PM - 2:00 PM)</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Biryani with chicken or chicken curry &lt;br&gt; Rice or chapati &lt;br&gt; Raita or curd</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Vegetable curry or dal (lentils) with rice or chapati &lt;br&gt; Paneer or tofu in curry &lt;br&gt; Curd</t>
-        </is>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Evening Snack (4:00 PM - 5:00 PM)</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Paneer cubes or boiled eggs &lt;br&gt; Mixed nuts &lt;br&gt; Glass of full-fat milk or lassi</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Paneer tikka or chana chaat &lt;br&gt; Mixed nuts &lt;br&gt; Glass of lassi or milk with honey</t>
-        </is>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Dinner (8:00 PM - 9:00 PM)</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Chicken or fish (grilled or curry) &lt;br&gt; Chapati or rice &lt;br&gt; Steamed or sautéed vegetables</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Paneer curry &lt;br&gt; Chapati or rice &lt;br&gt; Steamed vegetables &lt;br&gt; Curd</t>
-        </is>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Night Snack (10:30 PM - 11:00 PM)</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2 boiled eggs or cottage cheese (paneer) &lt;br&gt; Peanut butter on whole-grain toast &lt;br&gt; Handful of mixed nuts</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2 boiled eggs or cottage cheese (paneer) &lt;br&gt; Peanut butter on whole-grain toast &lt;br&gt; Handful of mixed nuts</t>
-        </is>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>